--- a/WotMatchmakerSimulator/data/tanks.xlsx
+++ b/WotMatchmakerSimulator/data/tanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\wot\WotMatchmakerSimulator\WotMatchmakerSimulator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D36146-D1A2-4D76-A10B-906476CEEA7C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44440242-6C7F-4219-A75F-7C4783B76DEC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{0D3AE42C-1821-4A5F-B8A7-10AFC3A4D129}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="606">
   <si>
     <t>light</t>
   </si>
@@ -16354,10 +16354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7998B6-BA8C-46D1-B4CE-0D044B521F5D}">
-  <dimension ref="A1:G571"/>
+  <dimension ref="A1:F565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F565" sqref="A1:F565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16366,10 +16366,10 @@
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -16390,11 +16390,8 @@
       <c r="F1">
         <v>1003</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -16415,11 +16412,8 @@
       <c r="F2">
         <v>1370</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -16440,11 +16434,8 @@
       <c r="F3">
         <v>1182</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -16465,11 +16456,8 @@
       <c r="F4">
         <v>6726</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -16490,11 +16478,8 @@
       <c r="F5">
         <v>20072</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -16515,11 +16500,8 @@
       <c r="F6">
         <v>1781</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -16540,11 +16522,8 @@
       <c r="F7">
         <v>1736</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -16565,11 +16544,8 @@
       <c r="F8">
         <v>2774</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -16590,11 +16566,8 @@
       <c r="F9">
         <v>2686</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>589</v>
       </c>
@@ -16615,11 +16588,8 @@
       <c r="F10">
         <v>2676</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -16640,11 +16610,8 @@
       <c r="F11">
         <v>1128</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -16665,11 +16632,8 @@
       <c r="F12">
         <v>1133</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -16690,11 +16654,8 @@
       <c r="F13">
         <v>518</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -16715,11 +16676,8 @@
       <c r="F14">
         <v>1585</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -16740,11 +16698,8 @@
       <c r="F15">
         <v>732</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -16765,11 +16720,8 @@
       <c r="F16">
         <v>780</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -16790,11 +16742,8 @@
       <c r="F17">
         <v>824</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -16815,11 +16764,8 @@
       <c r="F18">
         <v>5529</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -16839,11 +16785,8 @@
       <c r="F19">
         <v>1198</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -16864,11 +16807,8 @@
       <c r="F20">
         <v>695</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -16889,11 +16829,8 @@
       <c r="F21">
         <v>2369</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -16914,11 +16851,8 @@
       <c r="F22">
         <v>7431</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -16939,11 +16873,8 @@
       <c r="F23">
         <v>298</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -16964,11 +16895,8 @@
       <c r="F24">
         <v>352</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -16989,11 +16917,8 @@
       <c r="F25">
         <v>1643</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -17014,11 +16939,8 @@
       <c r="F26">
         <v>1896</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -17039,11 +16961,8 @@
       <c r="F27">
         <v>1015</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>585</v>
       </c>
@@ -17063,11 +16982,8 @@
       <c r="F28">
         <v>941</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -17088,11 +17004,8 @@
       <c r="F29">
         <v>3510</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -17113,11 +17026,8 @@
       <c r="F30">
         <v>1157</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -17137,11 +17047,8 @@
       <c r="F31">
         <v>1638</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>586</v>
       </c>
@@ -17162,11 +17069,8 @@
       <c r="F32">
         <v>2045</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -17187,11 +17091,8 @@
       <c r="F33">
         <v>911</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>587</v>
       </c>
@@ -17212,11 +17113,8 @@
       <c r="F34">
         <v>6798</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -17237,11 +17135,8 @@
       <c r="F35">
         <v>1349</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -17262,11 +17157,8 @@
       <c r="F36">
         <v>1177</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -17287,11 +17179,8 @@
       <c r="F37">
         <v>1544</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -17312,11 +17201,8 @@
       <c r="F38">
         <v>2372</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -17337,11 +17223,8 @@
       <c r="F39">
         <v>2233</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -17362,11 +17245,8 @@
       <c r="F40">
         <v>16919</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -17387,11 +17267,8 @@
       <c r="F41">
         <v>1456</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -17412,11 +17289,8 @@
       <c r="F42">
         <v>474</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>591</v>
       </c>
@@ -17437,11 +17311,8 @@
       <c r="F43">
         <v>1359</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>592</v>
       </c>
@@ -17462,11 +17333,8 @@
       <c r="F44">
         <v>4214</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
@@ -17487,11 +17355,8 @@
       <c r="F45">
         <v>1113</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -17512,11 +17377,8 @@
       <c r="F46">
         <v>2429</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
@@ -17537,11 +17399,8 @@
       <c r="F47">
         <v>1139</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -17562,11 +17421,8 @@
       <c r="F48">
         <v>1568</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
@@ -17587,11 +17443,8 @@
       <c r="F49">
         <v>1805</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -17612,11 +17465,8 @@
       <c r="F50">
         <v>947</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
@@ -17637,11 +17487,8 @@
       <c r="F51">
         <v>599</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -17662,11 +17509,8 @@
       <c r="F52">
         <v>3883</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>68</v>
       </c>
@@ -17687,11 +17531,8 @@
       <c r="F53">
         <v>1658</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
@@ -17712,11 +17553,8 @@
       <c r="F54">
         <v>1023</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
@@ -17737,11 +17575,8 @@
       <c r="F55">
         <v>1703</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
@@ -17762,11 +17597,8 @@
       <c r="F56">
         <v>2104</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>596</v>
       </c>
@@ -17787,11 +17619,8 @@
       <c r="F57">
         <v>3001</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>73</v>
       </c>
@@ -17812,11 +17641,8 @@
       <c r="F58">
         <v>1851</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
@@ -17837,11 +17663,8 @@
       <c r="F59">
         <v>2930</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>75</v>
       </c>
@@ -17862,11 +17685,8 @@
       <c r="F60">
         <v>2303</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -17887,11 +17707,8 @@
       <c r="F61">
         <v>1663</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>77</v>
       </c>
@@ -17912,11 +17729,8 @@
       <c r="F62">
         <v>7303</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
@@ -17937,11 +17751,8 @@
       <c r="F63">
         <v>525</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
@@ -17962,11 +17773,8 @@
       <c r="F64">
         <v>2423</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
@@ -17987,11 +17795,8 @@
       <c r="F65">
         <v>16125</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>81</v>
       </c>
@@ -18012,11 +17817,8 @@
       <c r="F66">
         <v>8614</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
@@ -18037,11 +17839,8 @@
       <c r="F67">
         <v>1506</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>83</v>
       </c>
@@ -18062,11 +17861,8 @@
       <c r="F68">
         <v>571</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -18087,11 +17883,8 @@
       <c r="F69">
         <v>3144</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>85</v>
       </c>
@@ -18112,11 +17905,8 @@
       <c r="F70">
         <v>784</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -18137,11 +17927,8 @@
       <c r="F71">
         <v>4873</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>87</v>
       </c>
@@ -18162,11 +17949,8 @@
       <c r="F72">
         <v>3436</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
@@ -18187,11 +17971,8 @@
       <c r="F73">
         <v>15511</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>89</v>
       </c>
@@ -18212,11 +17993,8 @@
       <c r="F74">
         <v>3892</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>90</v>
       </c>
@@ -18237,11 +18015,8 @@
       <c r="F75">
         <v>2589</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>91</v>
       </c>
@@ -18262,11 +18037,8 @@
       <c r="F76">
         <v>2419</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>92</v>
       </c>
@@ -18287,11 +18059,8 @@
       <c r="F77">
         <v>6332</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
@@ -18312,11 +18081,8 @@
       <c r="F78">
         <v>6649</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>588</v>
       </c>
@@ -18337,11 +18103,8 @@
       <c r="F79">
         <v>144</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>95</v>
       </c>
@@ -18362,11 +18125,8 @@
       <c r="F80">
         <v>2059</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>96</v>
       </c>
@@ -18387,11 +18147,8 @@
       <c r="F81">
         <v>151</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>97</v>
       </c>
@@ -18412,11 +18169,8 @@
       <c r="F82">
         <v>3366</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>98</v>
       </c>
@@ -18437,11 +18191,8 @@
       <c r="F83">
         <v>3713</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>99</v>
       </c>
@@ -18462,11 +18213,8 @@
       <c r="F84">
         <v>1488</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
@@ -18487,11 +18235,8 @@
       <c r="F85">
         <v>1566</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>101</v>
       </c>
@@ -18512,11 +18257,8 @@
       <c r="F86">
         <v>3685</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>102</v>
       </c>
@@ -18537,11 +18279,8 @@
       <c r="F87">
         <v>2187</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>103</v>
       </c>
@@ -18562,11 +18301,8 @@
       <c r="F88">
         <v>217</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>104</v>
       </c>
@@ -18587,11 +18323,8 @@
       <c r="F89">
         <v>45567</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
@@ -18612,11 +18345,8 @@
       <c r="F90">
         <v>1040</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>593</v>
       </c>
@@ -18637,11 +18367,8 @@
       <c r="F91">
         <v>2460</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>594</v>
       </c>
@@ -18662,11 +18389,8 @@
       <c r="F92">
         <v>19584</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>108</v>
       </c>
@@ -18687,11 +18411,8 @@
       <c r="F93">
         <v>23854</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
@@ -18712,11 +18433,8 @@
       <c r="F94">
         <v>1781</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>110</v>
       </c>
@@ -18737,11 +18455,8 @@
       <c r="F95">
         <v>3910</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
@@ -18762,11 +18477,8 @@
       <c r="F96">
         <v>1736</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
@@ -18787,11 +18499,8 @@
       <c r="F97">
         <v>2136</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>113</v>
       </c>
@@ -18812,11 +18521,8 @@
       <c r="F98">
         <v>286</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>114</v>
       </c>
@@ -18837,11 +18543,8 @@
       <c r="F99">
         <v>1049</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
@@ -18862,11 +18565,8 @@
       <c r="F100">
         <v>3150</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
@@ -18887,11 +18587,8 @@
       <c r="F101">
         <v>3419</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
@@ -18912,11 +18609,8 @@
       <c r="F102">
         <v>2100</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
@@ -18937,11 +18631,8 @@
       <c r="F103">
         <v>1204</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
@@ -18962,11 +18653,8 @@
       <c r="F104">
         <v>2364</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>120</v>
       </c>
@@ -18987,11 +18675,8 @@
       <c r="F105">
         <v>7223</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
@@ -19012,11 +18697,8 @@
       <c r="F106">
         <v>5191</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>122</v>
       </c>
@@ -19037,11 +18719,8 @@
       <c r="F107">
         <v>1875</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>123</v>
       </c>
@@ -19062,11 +18741,8 @@
       <c r="F108">
         <v>3628</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>124</v>
       </c>
@@ -19087,11 +18763,8 @@
       <c r="F109">
         <v>5487</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>125</v>
       </c>
@@ -19112,11 +18785,8 @@
       <c r="F110">
         <v>39</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>126</v>
       </c>
@@ -19137,11 +18807,8 @@
       <c r="F111">
         <v>4664</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>127</v>
       </c>
@@ -19161,11 +18828,8 @@
       <c r="F112">
         <v>5602</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>128</v>
       </c>
@@ -19186,11 +18850,8 @@
       <c r="F113">
         <v>7482</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>598</v>
       </c>
@@ -19211,11 +18872,8 @@
       <c r="F114">
         <v>7811</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>130</v>
       </c>
@@ -19236,11 +18894,8 @@
       <c r="F115">
         <v>8436</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
@@ -19261,11 +18916,8 @@
       <c r="F116">
         <v>7297</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
@@ -19286,11 +18938,8 @@
       <c r="F117">
         <v>28740</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
@@ -19311,11 +18960,8 @@
       <c r="F118">
         <v>14919</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -19336,11 +18982,8 @@
       <c r="F119">
         <v>1801</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>135</v>
       </c>
@@ -19361,11 +19004,8 @@
       <c r="F120">
         <v>4523</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>136</v>
       </c>
@@ -19386,11 +19026,8 @@
       <c r="F121">
         <v>10826</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>137</v>
       </c>
@@ -19411,11 +19048,8 @@
       <c r="F122">
         <v>7567</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>138</v>
       </c>
@@ -19435,11 +19069,8 @@
       <c r="F123">
         <v>6327</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>139</v>
       </c>
@@ -19460,11 +19091,8 @@
       <c r="F124">
         <v>7102</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>140</v>
       </c>
@@ -19485,11 +19113,8 @@
       <c r="F125">
         <v>9233</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>141</v>
       </c>
@@ -19510,11 +19135,8 @@
       <c r="F126">
         <v>5343</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>142</v>
       </c>
@@ -19535,11 +19157,8 @@
       <c r="F127">
         <v>1876</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>143</v>
       </c>
@@ -19560,11 +19179,8 @@
       <c r="F128">
         <v>1620</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>144</v>
       </c>
@@ -19585,11 +19201,8 @@
       <c r="F129">
         <v>5512</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>145</v>
       </c>
@@ -19610,11 +19223,8 @@
       <c r="F130">
         <v>4627</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>146</v>
       </c>
@@ -19635,11 +19245,8 @@
       <c r="F131">
         <v>101912</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>147</v>
       </c>
@@ -19660,11 +19267,8 @@
       <c r="F132">
         <v>1893</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>148</v>
       </c>
@@ -19685,11 +19289,8 @@
       <c r="F133">
         <v>8035</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>149</v>
       </c>
@@ -19710,11 +19311,8 @@
       <c r="F134">
         <v>20952</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>150</v>
       </c>
@@ -19735,11 +19333,8 @@
       <c r="F135">
         <v>1686</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>151</v>
       </c>
@@ -19760,11 +19355,8 @@
       <c r="F136">
         <v>1256</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>152</v>
       </c>
@@ -19785,11 +19377,8 @@
       <c r="F137">
         <v>17389</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>153</v>
       </c>
@@ -19810,11 +19399,8 @@
       <c r="F138">
         <v>4422</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>154</v>
       </c>
@@ -19835,11 +19421,8 @@
       <c r="F139">
         <v>20760</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>155</v>
       </c>
@@ -19859,11 +19442,8 @@
       <c r="F140">
         <v>14</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>156</v>
       </c>
@@ -19884,11 +19464,8 @@
       <c r="F141">
         <v>5556</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>157</v>
       </c>
@@ -19909,11 +19486,8 @@
       <c r="F142">
         <v>5034</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>158</v>
       </c>
@@ -19934,11 +19508,8 @@
       <c r="F143">
         <v>8555</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>159</v>
       </c>
@@ -19959,11 +19530,8 @@
       <c r="F144">
         <v>4294</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>160</v>
       </c>
@@ -19984,11 +19552,8 @@
       <c r="F145">
         <v>2573</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
@@ -20009,11 +19574,8 @@
       <c r="F146">
         <v>6579</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>162</v>
       </c>
@@ -20034,11 +19596,8 @@
       <c r="F147">
         <v>5483</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>163</v>
       </c>
@@ -20059,11 +19618,8 @@
       <c r="F148">
         <v>5695</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>164</v>
       </c>
@@ -20084,11 +19640,8 @@
       <c r="F149">
         <v>2007</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>165</v>
       </c>
@@ -20109,11 +19662,8 @@
       <c r="F150">
         <v>3704</v>
       </c>
-      <c r="G150" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>166</v>
       </c>
@@ -20134,11 +19684,8 @@
       <c r="F151">
         <v>12278</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>167</v>
       </c>
@@ -20159,11 +19706,8 @@
       <c r="F152">
         <v>27895</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>168</v>
       </c>
@@ -20184,11 +19728,8 @@
       <c r="F153">
         <v>11080</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>169</v>
       </c>
@@ -20209,11 +19750,8 @@
       <c r="F154">
         <v>4134</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>170</v>
       </c>
@@ -20234,11 +19772,8 @@
       <c r="F155">
         <v>7103</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>171</v>
       </c>
@@ -20259,11 +19794,8 @@
       <c r="F156">
         <v>10472</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>172</v>
       </c>
@@ -20284,11 +19816,8 @@
       <c r="F157">
         <v>16575</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>173</v>
       </c>
@@ -20309,11 +19838,8 @@
       <c r="F158">
         <v>9051</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>174</v>
       </c>
@@ -20334,11 +19860,8 @@
       <c r="F159">
         <v>13743</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>175</v>
       </c>
@@ -20359,11 +19882,8 @@
       <c r="F160">
         <v>16206</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>176</v>
       </c>
@@ -20383,11 +19903,8 @@
       <c r="F161">
         <v>7558</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
@@ -20408,11 +19925,8 @@
       <c r="F162">
         <v>13401</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>178</v>
       </c>
@@ -20432,11 +19946,8 @@
       <c r="F163">
         <v>3081</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>599</v>
       </c>
@@ -20457,11 +19968,8 @@
       <c r="F164">
         <v>14513</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>180</v>
       </c>
@@ -20481,11 +19989,8 @@
       <c r="F165">
         <v>1</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>181</v>
       </c>
@@ -20505,11 +20010,8 @@
       <c r="F166">
         <v>1454</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>182</v>
       </c>
@@ -20530,11 +20032,8 @@
       <c r="F167">
         <v>24281</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>183</v>
       </c>
@@ -20555,11 +20054,8 @@
       <c r="F168">
         <v>45060</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>184</v>
       </c>
@@ -20579,11 +20075,8 @@
       <c r="F169">
         <v>14615</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>185</v>
       </c>
@@ -20604,11 +20097,8 @@
       <c r="F170">
         <v>27615</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>186</v>
       </c>
@@ -20629,11 +20119,8 @@
       <c r="F171">
         <v>23051</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>187</v>
       </c>
@@ -20654,11 +20141,8 @@
       <c r="F172">
         <v>6642</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>188</v>
       </c>
@@ -20679,11 +20163,8 @@
       <c r="F173">
         <v>13007</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>189</v>
       </c>
@@ -20704,11 +20185,8 @@
       <c r="F174">
         <v>7232</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>190</v>
       </c>
@@ -20729,11 +20207,8 @@
       <c r="F175">
         <v>12703</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>191</v>
       </c>
@@ -20754,11 +20229,8 @@
       <c r="F176">
         <v>10251</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>192</v>
       </c>
@@ -20779,11 +20251,8 @@
       <c r="F177">
         <v>2922</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>193</v>
       </c>
@@ -20804,11 +20273,8 @@
       <c r="F178">
         <v>708</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>194</v>
       </c>
@@ -20828,11 +20294,8 @@
       <c r="F179">
         <v>6</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>195</v>
       </c>
@@ -20852,11 +20315,8 @@
       <c r="F180">
         <v>158</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>196</v>
       </c>
@@ -20877,11 +20337,8 @@
       <c r="F181">
         <v>11549</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>197</v>
       </c>
@@ -20901,11 +20358,8 @@
       <c r="F182">
         <v>259</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>198</v>
       </c>
@@ -20926,11 +20380,8 @@
       <c r="F183">
         <v>41156</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>199</v>
       </c>
@@ -20951,11 +20402,8 @@
       <c r="F184">
         <v>9102</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>200</v>
       </c>
@@ -20976,11 +20424,8 @@
       <c r="F185">
         <v>769</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>201</v>
       </c>
@@ -21001,11 +20446,8 @@
       <c r="F186">
         <v>82292</v>
       </c>
-      <c r="G186" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>202</v>
       </c>
@@ -21026,11 +20468,8 @@
       <c r="F187">
         <v>3925</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>203</v>
       </c>
@@ -21051,11 +20490,8 @@
       <c r="F188">
         <v>4233</v>
       </c>
-      <c r="G188" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>204</v>
       </c>
@@ -21076,11 +20512,8 @@
       <c r="F189">
         <v>10674</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>205</v>
       </c>
@@ -21101,11 +20534,8 @@
       <c r="F190">
         <v>4539</v>
       </c>
-      <c r="G190" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>206</v>
       </c>
@@ -21125,11 +20555,8 @@
       <c r="F191">
         <v>3790</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>207</v>
       </c>
@@ -21150,11 +20577,8 @@
       <c r="F192">
         <v>11585</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>208</v>
       </c>
@@ -21175,11 +20599,8 @@
       <c r="F193">
         <v>1274</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>209</v>
       </c>
@@ -21199,11 +20620,8 @@
       <c r="F194">
         <v>151</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>210</v>
       </c>
@@ -21224,11 +20642,8 @@
       <c r="F195">
         <v>28997</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>211</v>
       </c>
@@ -21249,11 +20664,8 @@
       <c r="F196">
         <v>586</v>
       </c>
-      <c r="G196" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>212</v>
       </c>
@@ -21274,11 +20686,8 @@
       <c r="F197">
         <v>29645</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>213</v>
       </c>
@@ -21299,11 +20708,8 @@
       <c r="F198">
         <v>5780</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>214</v>
       </c>
@@ -21324,11 +20730,8 @@
       <c r="F199">
         <v>5825</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>215</v>
       </c>
@@ -21349,11 +20752,8 @@
       <c r="F200">
         <v>8949</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>216</v>
       </c>
@@ -21374,11 +20774,8 @@
       <c r="F201">
         <v>26798</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>217</v>
       </c>
@@ -21399,11 +20796,8 @@
       <c r="F202">
         <v>8780</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>218</v>
       </c>
@@ -21424,11 +20818,8 @@
       <c r="F203">
         <v>14571</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>219</v>
       </c>
@@ -21449,11 +20840,8 @@
       <c r="F204">
         <v>5282</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>220</v>
       </c>
@@ -21474,11 +20862,8 @@
       <c r="F205">
         <v>6600</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>221</v>
       </c>
@@ -21499,11 +20884,8 @@
       <c r="F206">
         <v>5617</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>222</v>
       </c>
@@ -21523,11 +20905,8 @@
       <c r="F207">
         <v>9771</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>223</v>
       </c>
@@ -21548,11 +20927,8 @@
       <c r="F208">
         <v>26060</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>224</v>
       </c>
@@ -21573,11 +20949,8 @@
       <c r="F209">
         <v>10584</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>225</v>
       </c>
@@ -21598,11 +20971,8 @@
       <c r="F210">
         <v>17859</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>226</v>
       </c>
@@ -21623,11 +20993,8 @@
       <c r="F211">
         <v>4427</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>227</v>
       </c>
@@ -21648,11 +21015,8 @@
       <c r="F212">
         <v>3995</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>228</v>
       </c>
@@ -21673,11 +21037,8 @@
       <c r="F213">
         <v>57877</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>229</v>
       </c>
@@ -21698,11 +21059,8 @@
       <c r="F214">
         <v>10604</v>
       </c>
-      <c r="G214" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>230</v>
       </c>
@@ -21722,11 +21080,8 @@
       <c r="F215">
         <v>651</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>231</v>
       </c>
@@ -21747,11 +21102,8 @@
       <c r="F216">
         <v>23907</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>232</v>
       </c>
@@ -21772,11 +21124,8 @@
       <c r="F217">
         <v>12953</v>
       </c>
-      <c r="G217" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>233</v>
       </c>
@@ -21797,11 +21146,8 @@
       <c r="F218">
         <v>20325</v>
       </c>
-      <c r="G218" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>234</v>
       </c>
@@ -21822,11 +21168,8 @@
       <c r="F219">
         <v>5517</v>
       </c>
-      <c r="G219" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>235</v>
       </c>
@@ -21847,11 +21190,8 @@
       <c r="F220">
         <v>35510</v>
       </c>
-      <c r="G220" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>600</v>
       </c>
@@ -21872,11 +21212,8 @@
       <c r="F221">
         <v>9301</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>237</v>
       </c>
@@ -21896,11 +21233,8 @@
       <c r="F222">
         <v>3659</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>238</v>
       </c>
@@ -21921,11 +21255,8 @@
       <c r="F223">
         <v>13007</v>
       </c>
-      <c r="G223" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>239</v>
       </c>
@@ -21946,11 +21277,8 @@
       <c r="F224">
         <v>13182</v>
       </c>
-      <c r="G224" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>240</v>
       </c>
@@ -21971,11 +21299,8 @@
       <c r="F225">
         <v>21073</v>
       </c>
-      <c r="G225" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>241</v>
       </c>
@@ -21996,11 +21321,8 @@
       <c r="F226">
         <v>38276</v>
       </c>
-      <c r="G226" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>242</v>
       </c>
@@ -22021,11 +21343,8 @@
       <c r="F227">
         <v>47744</v>
       </c>
-      <c r="G227" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>243</v>
       </c>
@@ -22046,11 +21365,8 @@
       <c r="F228">
         <v>37905</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>244</v>
       </c>
@@ -22071,11 +21387,8 @@
       <c r="F229">
         <v>13097</v>
       </c>
-      <c r="G229" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>245</v>
       </c>
@@ -22096,11 +21409,8 @@
       <c r="F230">
         <v>41500</v>
       </c>
-      <c r="G230" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>246</v>
       </c>
@@ -22121,11 +21431,8 @@
       <c r="F231">
         <v>16359</v>
       </c>
-      <c r="G231" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>247</v>
       </c>
@@ -22146,11 +21453,8 @@
       <c r="F232">
         <v>15992</v>
       </c>
-      <c r="G232" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>248</v>
       </c>
@@ -22171,11 +21475,8 @@
       <c r="F233">
         <v>7906</v>
       </c>
-      <c r="G233" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>249</v>
       </c>
@@ -22196,11 +21497,8 @@
       <c r="F234">
         <v>17231</v>
       </c>
-      <c r="G234" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>250</v>
       </c>
@@ -22221,11 +21519,8 @@
       <c r="F235">
         <v>11177</v>
       </c>
-      <c r="G235" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>251</v>
       </c>
@@ -22246,11 +21541,8 @@
       <c r="F236">
         <v>5422</v>
       </c>
-      <c r="G236" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>252</v>
       </c>
@@ -22271,11 +21563,8 @@
       <c r="F237">
         <v>20374</v>
       </c>
-      <c r="G237" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>253</v>
       </c>
@@ -22296,11 +21585,8 @@
       <c r="F238">
         <v>10831</v>
       </c>
-      <c r="G238" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>254</v>
       </c>
@@ -22321,11 +21607,8 @@
       <c r="F239">
         <v>25754</v>
       </c>
-      <c r="G239" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>255</v>
       </c>
@@ -22346,11 +21629,8 @@
       <c r="F240">
         <v>9614</v>
       </c>
-      <c r="G240" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>256</v>
       </c>
@@ -22371,11 +21651,8 @@
       <c r="F241">
         <v>3634</v>
       </c>
-      <c r="G241" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>257</v>
       </c>
@@ -22396,11 +21673,8 @@
       <c r="F242">
         <v>67883</v>
       </c>
-      <c r="G242" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>258</v>
       </c>
@@ -22421,11 +21695,8 @@
       <c r="F243">
         <v>4172</v>
       </c>
-      <c r="G243" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>259</v>
       </c>
@@ -22446,11 +21717,8 @@
       <c r="F244">
         <v>9681</v>
       </c>
-      <c r="G244" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>260</v>
       </c>
@@ -22471,11 +21739,8 @@
       <c r="F245">
         <v>8079</v>
       </c>
-      <c r="G245" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>261</v>
       </c>
@@ -22496,11 +21761,8 @@
       <c r="F246">
         <v>16877</v>
       </c>
-      <c r="G246" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>262</v>
       </c>
@@ -22521,11 +21783,8 @@
       <c r="F247">
         <v>5553</v>
       </c>
-      <c r="G247" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>263</v>
       </c>
@@ -22546,11 +21805,8 @@
       <c r="F248">
         <v>16599</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>264</v>
       </c>
@@ -22571,11 +21827,8 @@
       <c r="F249">
         <v>38554</v>
       </c>
-      <c r="G249" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>265</v>
       </c>
@@ -22596,11 +21849,8 @@
       <c r="F250">
         <v>1988</v>
       </c>
-      <c r="G250" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>266</v>
       </c>
@@ -22621,11 +21871,8 @@
       <c r="F251">
         <v>5003</v>
       </c>
-      <c r="G251" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>267</v>
       </c>
@@ -22646,11 +21893,8 @@
       <c r="F252">
         <v>9682</v>
       </c>
-      <c r="G252" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>268</v>
       </c>
@@ -22671,11 +21915,8 @@
       <c r="F253">
         <v>1564</v>
       </c>
-      <c r="G253" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>269</v>
       </c>
@@ -22696,11 +21937,8 @@
       <c r="F254">
         <v>20443</v>
       </c>
-      <c r="G254" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>270</v>
       </c>
@@ -22721,11 +21959,8 @@
       <c r="F255">
         <v>70986</v>
       </c>
-      <c r="G255" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>271</v>
       </c>
@@ -22746,11 +21981,8 @@
       <c r="F256">
         <v>9933</v>
       </c>
-      <c r="G256" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>272</v>
       </c>
@@ -22771,11 +22003,8 @@
       <c r="F257">
         <v>41860</v>
       </c>
-      <c r="G257" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>273</v>
       </c>
@@ -22796,11 +22025,8 @@
       <c r="F258">
         <v>1842</v>
       </c>
-      <c r="G258" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>274</v>
       </c>
@@ -22821,11 +22047,8 @@
       <c r="F259">
         <v>7105</v>
       </c>
-      <c r="G259" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>275</v>
       </c>
@@ -22846,11 +22069,8 @@
       <c r="F260">
         <v>19741</v>
       </c>
-      <c r="G260" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>276</v>
       </c>
@@ -22871,11 +22091,8 @@
       <c r="F261">
         <v>32831</v>
       </c>
-      <c r="G261" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>277</v>
       </c>
@@ -22896,11 +22113,8 @@
       <c r="F262">
         <v>15929</v>
       </c>
-      <c r="G262" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>278</v>
       </c>
@@ -22921,11 +22135,8 @@
       <c r="F263">
         <v>55589</v>
       </c>
-      <c r="G263" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>279</v>
       </c>
@@ -22946,11 +22157,8 @@
       <c r="F264">
         <v>11039</v>
       </c>
-      <c r="G264" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>280</v>
       </c>
@@ -22971,11 +22179,8 @@
       <c r="F265">
         <v>8872</v>
       </c>
-      <c r="G265" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>281</v>
       </c>
@@ -22996,11 +22201,8 @@
       <c r="F266">
         <v>4201</v>
       </c>
-      <c r="G266" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>282</v>
       </c>
@@ -23021,11 +22223,8 @@
       <c r="F267">
         <v>11694</v>
       </c>
-      <c r="G267" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>283</v>
       </c>
@@ -23046,11 +22245,8 @@
       <c r="F268">
         <v>21192</v>
       </c>
-      <c r="G268" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>284</v>
       </c>
@@ -23071,11 +22267,8 @@
       <c r="F269">
         <v>15324</v>
       </c>
-      <c r="G269" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>285</v>
       </c>
@@ -23096,11 +22289,8 @@
       <c r="F270">
         <v>25461</v>
       </c>
-      <c r="G270" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>286</v>
       </c>
@@ -23121,11 +22311,8 @@
       <c r="F271">
         <v>955</v>
       </c>
-      <c r="G271" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>287</v>
       </c>
@@ -23146,11 +22333,8 @@
       <c r="F272">
         <v>6406</v>
       </c>
-      <c r="G272" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>288</v>
       </c>
@@ -23171,11 +22355,8 @@
       <c r="F273">
         <v>6625</v>
       </c>
-      <c r="G273" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>289</v>
       </c>
@@ -23196,11 +22377,8 @@
       <c r="F274">
         <v>10550</v>
       </c>
-      <c r="G274" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>290</v>
       </c>
@@ -23221,11 +22399,8 @@
       <c r="F275">
         <v>49690</v>
       </c>
-      <c r="G275" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>291</v>
       </c>
@@ -23246,11 +22421,8 @@
       <c r="F276">
         <v>11293</v>
       </c>
-      <c r="G276" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>292</v>
       </c>
@@ -23271,11 +22443,8 @@
       <c r="F277">
         <v>43383</v>
       </c>
-      <c r="G277" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>293</v>
       </c>
@@ -23296,11 +22465,8 @@
       <c r="F278">
         <v>11614</v>
       </c>
-      <c r="G278" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>294</v>
       </c>
@@ -23321,11 +22487,8 @@
       <c r="F279">
         <v>14091</v>
       </c>
-      <c r="G279" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>295</v>
       </c>
@@ -23346,11 +22509,8 @@
       <c r="F280">
         <v>4342</v>
       </c>
-      <c r="G280" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>296</v>
       </c>
@@ -23371,11 +22531,8 @@
       <c r="F281">
         <v>4</v>
       </c>
-      <c r="G281" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>297</v>
       </c>
@@ -23396,11 +22553,8 @@
       <c r="F282">
         <v>1</v>
       </c>
-      <c r="G282" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>298</v>
       </c>
@@ -23421,11 +22575,8 @@
       <c r="F283">
         <v>44631</v>
       </c>
-      <c r="G283" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>299</v>
       </c>
@@ -23446,11 +22597,8 @@
       <c r="F284">
         <v>29112</v>
       </c>
-      <c r="G284" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>300</v>
       </c>
@@ -23471,11 +22619,8 @@
       <c r="F285">
         <v>34437</v>
       </c>
-      <c r="G285" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>301</v>
       </c>
@@ -23496,11 +22641,8 @@
       <c r="F286">
         <v>893</v>
       </c>
-      <c r="G286" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>302</v>
       </c>
@@ -23521,11 +22663,8 @@
       <c r="F287">
         <v>14675</v>
       </c>
-      <c r="G287" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>303</v>
       </c>
@@ -23546,11 +22685,8 @@
       <c r="F288">
         <v>45243</v>
       </c>
-      <c r="G288" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>304</v>
       </c>
@@ -23571,11 +22707,8 @@
       <c r="F289">
         <v>13736</v>
       </c>
-      <c r="G289" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>305</v>
       </c>
@@ -23596,11 +22729,8 @@
       <c r="F290">
         <v>2094</v>
       </c>
-      <c r="G290" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>293</v>
       </c>
@@ -23621,11 +22751,8 @@
       <c r="F291">
         <v>4572</v>
       </c>
-      <c r="G291" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>306</v>
       </c>
@@ -23646,11 +22773,8 @@
       <c r="F292">
         <v>57976</v>
       </c>
-      <c r="G292" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>307</v>
       </c>
@@ -23671,11 +22795,8 @@
       <c r="F293">
         <v>14943</v>
       </c>
-      <c r="G293" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>308</v>
       </c>
@@ -23696,11 +22817,8 @@
       <c r="F294">
         <v>9906</v>
       </c>
-      <c r="G294" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>309</v>
       </c>
@@ -23721,11 +22839,8 @@
       <c r="F295">
         <v>41651</v>
       </c>
-      <c r="G295" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>310</v>
       </c>
@@ -23746,11 +22861,8 @@
       <c r="F296">
         <v>6413</v>
       </c>
-      <c r="G296" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>311</v>
       </c>
@@ -23771,11 +22883,8 @@
       <c r="F297">
         <v>11424</v>
       </c>
-      <c r="G297" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>312</v>
       </c>
@@ -23796,11 +22905,8 @@
       <c r="F298">
         <v>16846</v>
       </c>
-      <c r="G298" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>313</v>
       </c>
@@ -23821,11 +22927,8 @@
       <c r="F299">
         <v>26795</v>
       </c>
-      <c r="G299" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>314</v>
       </c>
@@ -23846,11 +22949,8 @@
       <c r="F300">
         <v>9296</v>
       </c>
-      <c r="G300" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>315</v>
       </c>
@@ -23871,11 +22971,8 @@
       <c r="F301">
         <v>13096</v>
       </c>
-      <c r="G301" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>316</v>
       </c>
@@ -23896,11 +22993,8 @@
       <c r="F302">
         <v>5164</v>
       </c>
-      <c r="G302" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>317</v>
       </c>
@@ -23921,11 +23015,8 @@
       <c r="F303">
         <v>18928</v>
       </c>
-      <c r="G303" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>318</v>
       </c>
@@ -23946,11 +23037,8 @@
       <c r="F304">
         <v>10024</v>
       </c>
-      <c r="G304" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>319</v>
       </c>
@@ -23970,11 +23058,8 @@
       <c r="F305">
         <v>6287</v>
       </c>
-      <c r="G305" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>320</v>
       </c>
@@ -23995,11 +23080,8 @@
       <c r="F306">
         <v>16189</v>
       </c>
-      <c r="G306" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>321</v>
       </c>
@@ -24020,11 +23102,8 @@
       <c r="F307">
         <v>38725</v>
       </c>
-      <c r="G307" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>322</v>
       </c>
@@ -24045,11 +23124,8 @@
       <c r="F308">
         <v>5819</v>
       </c>
-      <c r="G308" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>323</v>
       </c>
@@ -24070,11 +23146,8 @@
       <c r="F309">
         <v>18846</v>
       </c>
-      <c r="G309" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>324</v>
       </c>
@@ -24095,11 +23168,8 @@
       <c r="F310">
         <v>19526</v>
       </c>
-      <c r="G310" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>325</v>
       </c>
@@ -24119,11 +23189,8 @@
       <c r="F311">
         <v>170</v>
       </c>
-      <c r="G311" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>326</v>
       </c>
@@ -24144,11 +23211,8 @@
       <c r="F312">
         <v>15052</v>
       </c>
-      <c r="G312" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>327</v>
       </c>
@@ -24168,11 +23232,8 @@
       <c r="F313">
         <v>1</v>
       </c>
-      <c r="G313" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>328</v>
       </c>
@@ -24193,11 +23254,8 @@
       <c r="F314">
         <v>23367</v>
       </c>
-      <c r="G314" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>329</v>
       </c>
@@ -24218,11 +23276,8 @@
       <c r="F315">
         <v>5277</v>
       </c>
-      <c r="G315" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>330</v>
       </c>
@@ -24243,11 +23298,8 @@
       <c r="F316">
         <v>7129</v>
       </c>
-      <c r="G316" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>331</v>
       </c>
@@ -24268,11 +23320,8 @@
       <c r="F317">
         <v>21170</v>
       </c>
-      <c r="G317" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>332</v>
       </c>
@@ -24293,11 +23342,8 @@
       <c r="F318">
         <v>58980</v>
       </c>
-      <c r="G318" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>333</v>
       </c>
@@ -24318,11 +23364,8 @@
       <c r="F319">
         <v>11358</v>
       </c>
-      <c r="G319" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>334</v>
       </c>
@@ -24343,11 +23386,8 @@
       <c r="F320">
         <v>33724</v>
       </c>
-      <c r="G320" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>335</v>
       </c>
@@ -24368,11 +23408,8 @@
       <c r="F321">
         <v>11231</v>
       </c>
-      <c r="G321" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>336</v>
       </c>
@@ -24393,11 +23430,8 @@
       <c r="F322">
         <v>14583</v>
       </c>
-      <c r="G322" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>337</v>
       </c>
@@ -24418,11 +23452,8 @@
       <c r="F323">
         <v>9066</v>
       </c>
-      <c r="G323" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>338</v>
       </c>
@@ -24443,11 +23474,8 @@
       <c r="F324">
         <v>4426</v>
       </c>
-      <c r="G324" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>339</v>
       </c>
@@ -24468,11 +23496,8 @@
       <c r="F325">
         <v>14035</v>
       </c>
-      <c r="G325" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>340</v>
       </c>
@@ -24493,11 +23518,8 @@
       <c r="F326">
         <v>6561</v>
       </c>
-      <c r="G326" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>341</v>
       </c>
@@ -24518,11 +23540,8 @@
       <c r="F327">
         <v>28604</v>
       </c>
-      <c r="G327" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>342</v>
       </c>
@@ -24542,11 +23561,8 @@
       <c r="F328">
         <v>27250</v>
       </c>
-      <c r="G328" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>343</v>
       </c>
@@ -24567,11 +23583,8 @@
       <c r="F329">
         <v>29800</v>
       </c>
-      <c r="G329" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>344</v>
       </c>
@@ -24592,11 +23605,8 @@
       <c r="F330">
         <v>13202</v>
       </c>
-      <c r="G330" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>345</v>
       </c>
@@ -24617,11 +23627,8 @@
       <c r="F331">
         <v>5473</v>
       </c>
-      <c r="G331" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>346</v>
       </c>
@@ -24641,11 +23648,8 @@
       <c r="F332">
         <v>2842</v>
       </c>
-      <c r="G332" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>347</v>
       </c>
@@ -24666,11 +23670,8 @@
       <c r="F333">
         <v>11424</v>
       </c>
-      <c r="G333" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>348</v>
       </c>
@@ -24691,11 +23692,8 @@
       <c r="F334">
         <v>28619</v>
       </c>
-      <c r="G334" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>349</v>
       </c>
@@ -24716,11 +23714,8 @@
       <c r="F335">
         <v>6410</v>
       </c>
-      <c r="G335" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>350</v>
       </c>
@@ -24741,11 +23736,8 @@
       <c r="F336">
         <v>7986</v>
       </c>
-      <c r="G336" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>351</v>
       </c>
@@ -24766,11 +23758,8 @@
       <c r="F337">
         <v>16554</v>
       </c>
-      <c r="G337" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>352</v>
       </c>
@@ -24791,11 +23780,8 @@
       <c r="F338">
         <v>12068</v>
       </c>
-      <c r="G338" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>353</v>
       </c>
@@ -24816,11 +23802,8 @@
       <c r="F339">
         <v>47899</v>
       </c>
-      <c r="G339" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>354</v>
       </c>
@@ -24841,11 +23824,8 @@
       <c r="F340">
         <v>5190</v>
       </c>
-      <c r="G340" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>355</v>
       </c>
@@ -24866,11 +23846,8 @@
       <c r="F341">
         <v>254</v>
       </c>
-      <c r="G341" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>356</v>
       </c>
@@ -24890,11 +23867,8 @@
       <c r="F342">
         <v>4795</v>
       </c>
-      <c r="G342" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>357</v>
       </c>
@@ -24914,11 +23888,8 @@
       <c r="F343">
         <v>7049</v>
       </c>
-      <c r="G343" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>358</v>
       </c>
@@ -24939,11 +23910,8 @@
       <c r="F344">
         <v>12626</v>
       </c>
-      <c r="G344" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>359</v>
       </c>
@@ -24964,11 +23932,8 @@
       <c r="F345">
         <v>13667</v>
       </c>
-      <c r="G345" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>360</v>
       </c>
@@ -24988,11 +23953,8 @@
       <c r="F346">
         <v>3805</v>
       </c>
-      <c r="G346" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>361</v>
       </c>
@@ -25013,11 +23975,8 @@
       <c r="F347">
         <v>5369</v>
       </c>
-      <c r="G347" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>362</v>
       </c>
@@ -25038,11 +23997,8 @@
       <c r="F348">
         <v>7530</v>
       </c>
-      <c r="G348" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>363</v>
       </c>
@@ -25063,11 +24019,8 @@
       <c r="F349">
         <v>12159</v>
       </c>
-      <c r="G349" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>364</v>
       </c>
@@ -25088,11 +24041,8 @@
       <c r="F350">
         <v>15977</v>
       </c>
-      <c r="G350" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>365</v>
       </c>
@@ -25113,11 +24063,8 @@
       <c r="F351">
         <v>8415</v>
       </c>
-      <c r="G351" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>366</v>
       </c>
@@ -25138,11 +24085,8 @@
       <c r="F352">
         <v>4696</v>
       </c>
-      <c r="G352" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>367</v>
       </c>
@@ -25163,11 +24107,8 @@
       <c r="F353">
         <v>1</v>
       </c>
-      <c r="G353" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>368</v>
       </c>
@@ -25188,11 +24129,8 @@
       <c r="F354">
         <v>25257</v>
       </c>
-      <c r="G354" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>369</v>
       </c>
@@ -25213,11 +24151,8 @@
       <c r="F355">
         <v>35167</v>
       </c>
-      <c r="G355" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>370</v>
       </c>
@@ -25238,11 +24173,8 @@
       <c r="F356">
         <v>54369</v>
       </c>
-      <c r="G356" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>371</v>
       </c>
@@ -25263,11 +24195,8 @@
       <c r="F357">
         <v>34764</v>
       </c>
-      <c r="G357" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>372</v>
       </c>
@@ -25288,11 +24217,8 @@
       <c r="F358">
         <v>3</v>
       </c>
-      <c r="G358" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>373</v>
       </c>
@@ -25313,11 +24239,8 @@
       <c r="F359">
         <v>22950</v>
       </c>
-      <c r="G359" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>374</v>
       </c>
@@ -25338,11 +24261,8 @@
       <c r="F360">
         <v>20421</v>
       </c>
-      <c r="G360" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>375</v>
       </c>
@@ -25363,11 +24283,8 @@
       <c r="F361">
         <v>1596</v>
       </c>
-      <c r="G361" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>376</v>
       </c>
@@ -25388,11 +24305,8 @@
       <c r="F362">
         <v>36476</v>
       </c>
-      <c r="G362" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>377</v>
       </c>
@@ -25413,11 +24327,8 @@
       <c r="F363">
         <v>18493</v>
       </c>
-      <c r="G363" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>378</v>
       </c>
@@ -25438,11 +24349,8 @@
       <c r="F364">
         <v>9499</v>
       </c>
-      <c r="G364" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>379</v>
       </c>
@@ -25463,11 +24371,8 @@
       <c r="F365">
         <v>8196</v>
       </c>
-      <c r="G365" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>380</v>
       </c>
@@ -25487,11 +24392,8 @@
       <c r="F366">
         <v>2402</v>
       </c>
-      <c r="G366" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>381</v>
       </c>
@@ -25512,11 +24414,8 @@
       <c r="F367">
         <v>4190</v>
       </c>
-      <c r="G367" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>382</v>
       </c>
@@ -25537,11 +24436,8 @@
       <c r="F368">
         <v>12662</v>
       </c>
-      <c r="G368" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>383</v>
       </c>
@@ -25562,11 +24458,8 @@
       <c r="F369">
         <v>3563</v>
       </c>
-      <c r="G369" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>384</v>
       </c>
@@ -25586,11 +24479,8 @@
       <c r="F370">
         <v>3054</v>
       </c>
-      <c r="G370" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>385</v>
       </c>
@@ -25611,11 +24501,8 @@
       <c r="F371">
         <v>46</v>
       </c>
-      <c r="G371" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>386</v>
       </c>
@@ -25636,11 +24523,8 @@
       <c r="F372">
         <v>12781</v>
       </c>
-      <c r="G372" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>387</v>
       </c>
@@ -25661,11 +24545,8 @@
       <c r="F373">
         <v>1</v>
       </c>
-      <c r="G373" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>388</v>
       </c>
@@ -25686,11 +24567,8 @@
       <c r="F374">
         <v>34207</v>
       </c>
-      <c r="G374" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>389</v>
       </c>
@@ -25710,11 +24588,8 @@
       <c r="F375">
         <v>1038</v>
       </c>
-      <c r="G375" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>390</v>
       </c>
@@ -25734,11 +24609,8 @@
       <c r="F376">
         <v>14774</v>
       </c>
-      <c r="G376" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>391</v>
       </c>
@@ -25759,11 +24631,8 @@
       <c r="F377">
         <v>337</v>
       </c>
-      <c r="G377" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>392</v>
       </c>
@@ -25784,11 +24653,8 @@
       <c r="F378">
         <v>1202</v>
       </c>
-      <c r="G378" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>393</v>
       </c>
@@ -25809,11 +24675,8 @@
       <c r="F379">
         <v>72348</v>
       </c>
-      <c r="G379" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>394</v>
       </c>
@@ -25834,11 +24697,8 @@
       <c r="F380">
         <v>27327</v>
       </c>
-      <c r="G380" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>395</v>
       </c>
@@ -25859,11 +24719,8 @@
       <c r="F381">
         <v>19588</v>
       </c>
-      <c r="G381" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>396</v>
       </c>
@@ -25884,11 +24741,8 @@
       <c r="F382">
         <v>64560</v>
       </c>
-      <c r="G382" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>397</v>
       </c>
@@ -25909,11 +24763,8 @@
       <c r="F383">
         <v>18182</v>
       </c>
-      <c r="G383" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>398</v>
       </c>
@@ -25934,11 +24785,8 @@
       <c r="F384">
         <v>16304</v>
       </c>
-      <c r="G384" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>399</v>
       </c>
@@ -25959,11 +24807,8 @@
       <c r="F385">
         <v>11912</v>
       </c>
-      <c r="G385" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>400</v>
       </c>
@@ -25984,11 +24829,8 @@
       <c r="F386">
         <v>14838</v>
       </c>
-      <c r="G386" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>401</v>
       </c>
@@ -26009,11 +24851,8 @@
       <c r="F387">
         <v>19692</v>
       </c>
-      <c r="G387" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>402</v>
       </c>
@@ -26034,11 +24873,8 @@
       <c r="F388">
         <v>20641</v>
       </c>
-      <c r="G388" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>403</v>
       </c>
@@ -26058,11 +24894,8 @@
       <c r="F389">
         <v>12525</v>
       </c>
-      <c r="G389" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>404</v>
       </c>
@@ -26082,11 +24915,8 @@
       <c r="F390">
         <v>7955</v>
       </c>
-      <c r="G390" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>405</v>
       </c>
@@ -26107,11 +24937,8 @@
       <c r="F391">
         <v>4458</v>
       </c>
-      <c r="G391" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>406</v>
       </c>
@@ -26132,11 +24959,8 @@
       <c r="F392">
         <v>2508</v>
       </c>
-      <c r="G392" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>407</v>
       </c>
@@ -26157,11 +24981,8 @@
       <c r="F393">
         <v>16556</v>
       </c>
-      <c r="G393" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>408</v>
       </c>
@@ -26182,11 +25003,8 @@
       <c r="F394">
         <v>19419</v>
       </c>
-      <c r="G394" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>409</v>
       </c>
@@ -26207,11 +25025,8 @@
       <c r="F395">
         <v>28815</v>
       </c>
-      <c r="G395" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>410</v>
       </c>
@@ -26232,11 +25047,8 @@
       <c r="F396">
         <v>13417</v>
       </c>
-      <c r="G396" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>411</v>
       </c>
@@ -26257,11 +25069,8 @@
       <c r="F397">
         <v>1121</v>
       </c>
-      <c r="G397" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>412</v>
       </c>
@@ -26282,11 +25091,8 @@
       <c r="F398">
         <v>5495</v>
       </c>
-      <c r="G398" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>578</v>
       </c>
@@ -26307,11 +25113,8 @@
       <c r="F399">
         <v>8807</v>
       </c>
-      <c r="G399" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>413</v>
       </c>
@@ -26332,11 +25135,8 @@
       <c r="F400">
         <v>12776</v>
       </c>
-      <c r="G400" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>414</v>
       </c>
@@ -26357,11 +25157,8 @@
       <c r="F401">
         <v>10618</v>
       </c>
-      <c r="G401" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>415</v>
       </c>
@@ -26382,11 +25179,8 @@
       <c r="F402">
         <v>181065</v>
       </c>
-      <c r="G402" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>416</v>
       </c>
@@ -26407,11 +25201,8 @@
       <c r="F403">
         <v>30072</v>
       </c>
-      <c r="G403" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>417</v>
       </c>
@@ -26432,11 +25223,8 @@
       <c r="F404">
         <v>4104</v>
       </c>
-      <c r="G404" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>418</v>
       </c>
@@ -26457,11 +25245,8 @@
       <c r="F405">
         <v>5932</v>
       </c>
-      <c r="G405" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>419</v>
       </c>
@@ -26482,11 +25267,8 @@
       <c r="F406">
         <v>1</v>
       </c>
-      <c r="G406" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>420</v>
       </c>
@@ -26507,11 +25289,8 @@
       <c r="F407">
         <v>2</v>
       </c>
-      <c r="G407" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>421</v>
       </c>
@@ -26532,11 +25311,8 @@
       <c r="F408">
         <v>7136</v>
       </c>
-      <c r="G408" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>422</v>
       </c>
@@ -26557,11 +25333,8 @@
       <c r="F409">
         <v>24641</v>
       </c>
-      <c r="G409" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>423</v>
       </c>
@@ -26582,11 +25355,8 @@
       <c r="F410">
         <v>163</v>
       </c>
-      <c r="G410" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>424</v>
       </c>
@@ -26607,11 +25377,8 @@
       <c r="F411">
         <v>19233</v>
       </c>
-      <c r="G411" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>425</v>
       </c>
@@ -26632,11 +25399,8 @@
       <c r="F412">
         <v>3828</v>
       </c>
-      <c r="G412" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>426</v>
       </c>
@@ -26657,11 +25421,8 @@
       <c r="F413">
         <v>366</v>
       </c>
-      <c r="G413" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>427</v>
       </c>
@@ -26682,11 +25443,8 @@
       <c r="F414">
         <v>13054</v>
       </c>
-      <c r="G414" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>428</v>
       </c>
@@ -26706,11 +25464,8 @@
       <c r="F415">
         <v>25820</v>
       </c>
-      <c r="G415" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>429</v>
       </c>
@@ -26731,11 +25486,8 @@
       <c r="F416">
         <v>11471</v>
       </c>
-      <c r="G416" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>430</v>
       </c>
@@ -26756,11 +25508,8 @@
       <c r="F417">
         <v>4722</v>
       </c>
-      <c r="G417" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>431</v>
       </c>
@@ -26781,11 +25530,8 @@
       <c r="F418">
         <v>14425</v>
       </c>
-      <c r="G418" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>432</v>
       </c>
@@ -26806,11 +25552,8 @@
       <c r="F419">
         <v>25918</v>
       </c>
-      <c r="G419" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>433</v>
       </c>
@@ -26831,11 +25574,8 @@
       <c r="F420">
         <v>9354</v>
       </c>
-      <c r="G420" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>434</v>
       </c>
@@ -26856,11 +25596,8 @@
       <c r="F421">
         <v>58660</v>
       </c>
-      <c r="G421" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>435</v>
       </c>
@@ -26881,11 +25618,8 @@
       <c r="F422">
         <v>3221</v>
       </c>
-      <c r="G422" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>436</v>
       </c>
@@ -26906,11 +25640,8 @@
       <c r="F423">
         <v>956</v>
       </c>
-      <c r="G423" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>437</v>
       </c>
@@ -26931,11 +25662,8 @@
       <c r="F424">
         <v>8370</v>
       </c>
-      <c r="G424" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>438</v>
       </c>
@@ -26956,11 +25684,8 @@
       <c r="F425">
         <v>24370</v>
       </c>
-      <c r="G425" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>439</v>
       </c>
@@ -26981,11 +25706,8 @@
       <c r="F426">
         <v>39289</v>
       </c>
-      <c r="G426" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>440</v>
       </c>
@@ -27006,11 +25728,8 @@
       <c r="F427">
         <v>12841</v>
       </c>
-      <c r="G427" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>441</v>
       </c>
@@ -27031,11 +25750,8 @@
       <c r="F428">
         <v>39473</v>
       </c>
-      <c r="G428" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>442</v>
       </c>
@@ -27056,11 +25772,8 @@
       <c r="F429">
         <v>15786</v>
       </c>
-      <c r="G429" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>443</v>
       </c>
@@ -27081,11 +25794,8 @@
       <c r="F430">
         <v>23999</v>
       </c>
-      <c r="G430" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>444</v>
       </c>
@@ -27106,11 +25816,8 @@
       <c r="F431">
         <v>8731</v>
       </c>
-      <c r="G431" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>445</v>
       </c>
@@ -27131,11 +25838,8 @@
       <c r="F432">
         <v>4468</v>
       </c>
-      <c r="G432" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>446</v>
       </c>
@@ -27156,11 +25860,8 @@
       <c r="F433">
         <v>7042</v>
       </c>
-      <c r="G433" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>447</v>
       </c>
@@ -27181,11 +25882,8 @@
       <c r="F434">
         <v>43559</v>
       </c>
-      <c r="G434" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>448</v>
       </c>
@@ -27206,11 +25904,8 @@
       <c r="F435">
         <v>125035</v>
       </c>
-      <c r="G435" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>449</v>
       </c>
@@ -27231,11 +25926,8 @@
       <c r="F436">
         <v>1</v>
       </c>
-      <c r="G436" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>450</v>
       </c>
@@ -27256,11 +25948,8 @@
       <c r="F437">
         <v>857</v>
       </c>
-      <c r="G437" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>451</v>
       </c>
@@ -27281,11 +25970,8 @@
       <c r="F438">
         <v>19107</v>
       </c>
-      <c r="G438" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>452</v>
       </c>
@@ -27306,11 +25992,8 @@
       <c r="F439">
         <v>18580</v>
       </c>
-      <c r="G439" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>579</v>
       </c>
@@ -27330,11 +26013,8 @@
       <c r="F440">
         <v>9276</v>
       </c>
-      <c r="G440" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>453</v>
       </c>
@@ -27355,11 +26035,8 @@
       <c r="F441">
         <v>43279</v>
       </c>
-      <c r="G441" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>454</v>
       </c>
@@ -27380,11 +26057,8 @@
       <c r="F442">
         <v>47781</v>
       </c>
-      <c r="G442" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>455</v>
       </c>
@@ -27405,11 +26079,8 @@
       <c r="F443">
         <v>17479</v>
       </c>
-      <c r="G443" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>456</v>
       </c>
@@ -27430,11 +26101,8 @@
       <c r="F444">
         <v>6401</v>
       </c>
-      <c r="G444" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>457</v>
       </c>
@@ -27455,11 +26123,8 @@
       <c r="F445">
         <v>32718</v>
       </c>
-      <c r="G445" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>458</v>
       </c>
@@ -27480,11 +26145,8 @@
       <c r="F446">
         <v>11734</v>
       </c>
-      <c r="G446" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>459</v>
       </c>
@@ -27505,11 +26167,8 @@
       <c r="F447">
         <v>3</v>
       </c>
-      <c r="G447" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>460</v>
       </c>
@@ -27530,11 +26189,8 @@
       <c r="F448">
         <v>61210</v>
       </c>
-      <c r="G448" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>461</v>
       </c>
@@ -27555,11 +26211,8 @@
       <c r="F449">
         <v>26868</v>
       </c>
-      <c r="G449" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>462</v>
       </c>
@@ -27580,11 +26233,8 @@
       <c r="F450">
         <v>26123</v>
       </c>
-      <c r="G450" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>463</v>
       </c>
@@ -27605,11 +26255,8 @@
       <c r="F451">
         <v>8785</v>
       </c>
-      <c r="G451" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>464</v>
       </c>
@@ -27630,11 +26277,8 @@
       <c r="F452">
         <v>11110</v>
       </c>
-      <c r="G452" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>465</v>
       </c>
@@ -27655,11 +26299,8 @@
       <c r="F453">
         <v>13642</v>
       </c>
-      <c r="G453" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>466</v>
       </c>
@@ -27680,11 +26321,8 @@
       <c r="F454">
         <v>12992</v>
       </c>
-      <c r="G454" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>467</v>
       </c>
@@ -27705,11 +26343,8 @@
       <c r="F455">
         <v>36979</v>
       </c>
-      <c r="G455" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>601</v>
       </c>
@@ -27730,11 +26365,8 @@
       <c r="F456">
         <v>42658</v>
       </c>
-      <c r="G456" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>469</v>
       </c>
@@ -27755,11 +26387,8 @@
       <c r="F457">
         <v>17113</v>
       </c>
-      <c r="G457" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>470</v>
       </c>
@@ -27780,11 +26409,8 @@
       <c r="F458">
         <v>33985</v>
       </c>
-      <c r="G458" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>471</v>
       </c>
@@ -27805,11 +26431,8 @@
       <c r="F459">
         <v>21008</v>
       </c>
-      <c r="G459" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>472</v>
       </c>
@@ -27830,11 +26453,8 @@
       <c r="F460">
         <v>80765</v>
       </c>
-      <c r="G460" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>473</v>
       </c>
@@ -27855,11 +26475,8 @@
       <c r="F461">
         <v>12823</v>
       </c>
-      <c r="G461" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>474</v>
       </c>
@@ -27880,11 +26497,8 @@
       <c r="F462">
         <v>23075</v>
       </c>
-      <c r="G462" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>475</v>
       </c>
@@ -27905,11 +26519,8 @@
       <c r="F463">
         <v>55633</v>
       </c>
-      <c r="G463" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>476</v>
       </c>
@@ -27930,11 +26541,8 @@
       <c r="F464">
         <v>11966</v>
       </c>
-      <c r="G464" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>477</v>
       </c>
@@ -27955,11 +26563,8 @@
       <c r="F465">
         <v>41986</v>
       </c>
-      <c r="G465" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>478</v>
       </c>
@@ -27980,11 +26585,8 @@
       <c r="F466">
         <v>23095</v>
       </c>
-      <c r="G466" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>479</v>
       </c>
@@ -28005,11 +26607,8 @@
       <c r="F467">
         <v>37939</v>
       </c>
-      <c r="G467" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>480</v>
       </c>
@@ -28030,11 +26629,8 @@
       <c r="F468">
         <v>29456</v>
       </c>
-      <c r="G468" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>481</v>
       </c>
@@ -28055,11 +26651,8 @@
       <c r="F469">
         <v>8398</v>
       </c>
-      <c r="G469" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>482</v>
       </c>
@@ -28080,11 +26673,8 @@
       <c r="F470">
         <v>26376</v>
       </c>
-      <c r="G470" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>483</v>
       </c>
@@ -28105,11 +26695,8 @@
       <c r="F471">
         <v>31095</v>
       </c>
-      <c r="G471" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>484</v>
       </c>
@@ -28130,11 +26717,8 @@
       <c r="F472">
         <v>13738</v>
       </c>
-      <c r="G472" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>485</v>
       </c>
@@ -28155,11 +26739,8 @@
       <c r="F473">
         <v>8011</v>
       </c>
-      <c r="G473" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>486</v>
       </c>
@@ -28180,11 +26761,8 @@
       <c r="F474">
         <v>18363</v>
       </c>
-      <c r="G474" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>487</v>
       </c>
@@ -28205,11 +26783,8 @@
       <c r="F475">
         <v>16388</v>
       </c>
-      <c r="G475" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>488</v>
       </c>
@@ -28230,11 +26805,8 @@
       <c r="F476">
         <v>20394</v>
       </c>
-      <c r="G476" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>489</v>
       </c>
@@ -28255,11 +26827,8 @@
       <c r="F477">
         <v>6068</v>
       </c>
-      <c r="G477" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>490</v>
       </c>
@@ -28280,11 +26849,8 @@
       <c r="F478">
         <v>20448</v>
       </c>
-      <c r="G478" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>491</v>
       </c>
@@ -28305,11 +26871,8 @@
       <c r="F479">
         <v>16559</v>
       </c>
-      <c r="G479" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>492</v>
       </c>
@@ -28330,11 +26893,8 @@
       <c r="F480">
         <v>16750</v>
       </c>
-      <c r="G480" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>493</v>
       </c>
@@ -28355,11 +26915,8 @@
       <c r="F481">
         <v>44863</v>
       </c>
-      <c r="G481" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>494</v>
       </c>
@@ -28380,11 +26937,8 @@
       <c r="F482">
         <v>14228</v>
       </c>
-      <c r="G482" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>495</v>
       </c>
@@ -28405,11 +26959,8 @@
       <c r="F483">
         <v>42581</v>
       </c>
-      <c r="G483" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>496</v>
       </c>
@@ -28430,11 +26981,8 @@
       <c r="F484">
         <v>23593</v>
       </c>
-      <c r="G484" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>497</v>
       </c>
@@ -28455,11 +27003,8 @@
       <c r="F485">
         <v>23300</v>
       </c>
-      <c r="G485" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>498</v>
       </c>
@@ -28480,11 +27025,8 @@
       <c r="F486">
         <v>11829</v>
       </c>
-      <c r="G486" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>499</v>
       </c>
@@ -28505,11 +27047,8 @@
       <c r="F487">
         <v>46353</v>
       </c>
-      <c r="G487" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>500</v>
       </c>
@@ -28530,11 +27069,8 @@
       <c r="F488">
         <v>13993</v>
       </c>
-      <c r="G488" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>501</v>
       </c>
@@ -28555,11 +27091,8 @@
       <c r="F489">
         <v>5619</v>
       </c>
-      <c r="G489" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>502</v>
       </c>
@@ -28580,11 +27113,8 @@
       <c r="F490">
         <v>6096</v>
       </c>
-      <c r="G490" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>503</v>
       </c>
@@ -28605,11 +27135,8 @@
       <c r="F491">
         <v>32265</v>
       </c>
-      <c r="G491" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>504</v>
       </c>
@@ -28630,11 +27157,8 @@
       <c r="F492">
         <v>30118</v>
       </c>
-      <c r="G492" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>505</v>
       </c>
@@ -28655,11 +27179,8 @@
       <c r="F493">
         <v>34646</v>
       </c>
-      <c r="G493" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>506</v>
       </c>
@@ -28680,11 +27201,8 @@
       <c r="F494">
         <v>9987</v>
       </c>
-      <c r="G494" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>507</v>
       </c>
@@ -28705,11 +27223,8 @@
       <c r="F495">
         <v>16524</v>
       </c>
-      <c r="G495" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>508</v>
       </c>
@@ -28730,11 +27245,8 @@
       <c r="F496">
         <v>19811</v>
       </c>
-      <c r="G496" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>509</v>
       </c>
@@ -28755,11 +27267,8 @@
       <c r="F497">
         <v>40587</v>
       </c>
-      <c r="G497" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>510</v>
       </c>
@@ -28780,11 +27289,8 @@
       <c r="F498">
         <v>17751</v>
       </c>
-      <c r="G498" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>511</v>
       </c>
@@ -28805,11 +27311,8 @@
       <c r="F499">
         <v>54353</v>
       </c>
-      <c r="G499" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>512</v>
       </c>
@@ -28830,11 +27333,8 @@
       <c r="F500">
         <v>11914</v>
       </c>
-      <c r="G500" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>513</v>
       </c>
@@ -28855,11 +27355,8 @@
       <c r="F501">
         <v>5669</v>
       </c>
-      <c r="G501" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>514</v>
       </c>
@@ -28880,11 +27377,8 @@
       <c r="F502">
         <v>2997</v>
       </c>
-      <c r="G502" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>515</v>
       </c>
@@ -28905,11 +27399,8 @@
       <c r="F503">
         <v>9669</v>
       </c>
-      <c r="G503" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>516</v>
       </c>
@@ -28930,11 +27421,8 @@
       <c r="F504">
         <v>1351</v>
       </c>
-      <c r="G504" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>517</v>
       </c>
@@ -28955,11 +27443,8 @@
       <c r="F505">
         <v>5811</v>
       </c>
-      <c r="G505" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>518</v>
       </c>
@@ -28980,11 +27465,8 @@
       <c r="F506">
         <v>10173</v>
       </c>
-      <c r="G506" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>519</v>
       </c>
@@ -29005,11 +27487,8 @@
       <c r="F507">
         <v>26812</v>
       </c>
-      <c r="G507" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>602</v>
       </c>
@@ -29030,11 +27509,8 @@
       <c r="F508">
         <v>19450</v>
       </c>
-      <c r="G508" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>521</v>
       </c>
@@ -29055,11 +27531,8 @@
       <c r="F509">
         <v>5041</v>
       </c>
-      <c r="G509" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>522</v>
       </c>
@@ -29080,11 +27553,8 @@
       <c r="F510">
         <v>1</v>
       </c>
-      <c r="G510" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>523</v>
       </c>
@@ -29105,11 +27575,8 @@
       <c r="F511">
         <v>19101</v>
       </c>
-      <c r="G511" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>524</v>
       </c>
@@ -29130,11 +27597,8 @@
       <c r="F512">
         <v>2697</v>
       </c>
-      <c r="G512" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>525</v>
       </c>
@@ -29155,11 +27619,8 @@
       <c r="F513">
         <v>4</v>
       </c>
-      <c r="G513" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>603</v>
       </c>
@@ -29180,11 +27641,8 @@
       <c r="F514">
         <v>16548</v>
       </c>
-      <c r="G514" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>527</v>
       </c>
@@ -29205,11 +27663,8 @@
       <c r="F515">
         <v>13657</v>
       </c>
-      <c r="G515" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>528</v>
       </c>
@@ -29230,11 +27685,8 @@
       <c r="F516">
         <v>1</v>
       </c>
-      <c r="G516" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>529</v>
       </c>
@@ -29255,11 +27707,8 @@
       <c r="F517">
         <v>11188</v>
       </c>
-      <c r="G517" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>530</v>
       </c>
@@ -29280,11 +27729,8 @@
       <c r="F518">
         <v>3166</v>
       </c>
-      <c r="G518" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>531</v>
       </c>
@@ -29305,11 +27751,8 @@
       <c r="F519">
         <v>1</v>
       </c>
-      <c r="G519" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>532</v>
       </c>
@@ -29330,11 +27773,8 @@
       <c r="F520">
         <v>52083</v>
       </c>
-      <c r="G520" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>533</v>
       </c>
@@ -29355,11 +27795,8 @@
       <c r="F521">
         <v>6921</v>
       </c>
-      <c r="G521" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>534</v>
       </c>
@@ -29380,11 +27817,8 @@
       <c r="F522">
         <v>4151</v>
       </c>
-      <c r="G522" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>535</v>
       </c>
@@ -29405,11 +27839,8 @@
       <c r="F523">
         <v>16451</v>
       </c>
-      <c r="G523" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>536</v>
       </c>
@@ -29430,11 +27861,8 @@
       <c r="F524">
         <v>6104</v>
       </c>
-      <c r="G524" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>537</v>
       </c>
@@ -29455,11 +27883,8 @@
       <c r="F525">
         <v>9713</v>
       </c>
-      <c r="G525" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>538</v>
       </c>
@@ -29480,11 +27905,8 @@
       <c r="F526">
         <v>29715</v>
       </c>
-      <c r="G526" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>539</v>
       </c>
@@ -29505,11 +27927,8 @@
       <c r="F527">
         <v>427</v>
       </c>
-      <c r="G527" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>540</v>
       </c>
@@ -29530,11 +27949,8 @@
       <c r="F528">
         <v>4981</v>
       </c>
-      <c r="G528" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>541</v>
       </c>
@@ -29555,11 +27971,8 @@
       <c r="F529">
         <v>22157</v>
       </c>
-      <c r="G529" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>542</v>
       </c>
@@ -29580,11 +27993,8 @@
       <c r="F530">
         <v>43615</v>
       </c>
-      <c r="G530" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>543</v>
       </c>
@@ -29605,11 +28015,8 @@
       <c r="F531">
         <v>4302</v>
       </c>
-      <c r="G531" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>544</v>
       </c>
@@ -29630,11 +28037,8 @@
       <c r="F532">
         <v>12024</v>
       </c>
-      <c r="G532" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>545</v>
       </c>
@@ -29655,11 +28059,8 @@
       <c r="F533">
         <v>12285</v>
       </c>
-      <c r="G533" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>546</v>
       </c>
@@ -29680,11 +28081,8 @@
       <c r="F534">
         <v>8911</v>
       </c>
-      <c r="G534" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>547</v>
       </c>
@@ -29705,11 +28103,8 @@
       <c r="F535">
         <v>3994</v>
       </c>
-      <c r="G535" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>548</v>
       </c>
@@ -29730,11 +28125,8 @@
       <c r="F536">
         <v>11780</v>
       </c>
-      <c r="G536" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>549</v>
       </c>
@@ -29755,11 +28147,8 @@
       <c r="F537">
         <v>425</v>
       </c>
-      <c r="G537" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>550</v>
       </c>
@@ -29780,11 +28169,8 @@
       <c r="F538">
         <v>1459</v>
       </c>
-      <c r="G538" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>551</v>
       </c>
@@ -29805,11 +28191,8 @@
       <c r="F539">
         <v>13946</v>
       </c>
-      <c r="G539" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>552</v>
       </c>
@@ -29830,11 +28213,8 @@
       <c r="F540">
         <v>1</v>
       </c>
-      <c r="G540" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>553</v>
       </c>
@@ -29855,11 +28235,8 @@
       <c r="F541">
         <v>11715</v>
       </c>
-      <c r="G541" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>595</v>
       </c>
@@ -29880,11 +28257,8 @@
       <c r="F542">
         <v>120</v>
       </c>
-      <c r="G542" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>555</v>
       </c>
@@ -29905,11 +28279,8 @@
       <c r="F543">
         <v>5602</v>
       </c>
-      <c r="G543" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>556</v>
       </c>
@@ -29930,11 +28301,8 @@
       <c r="F544">
         <v>22430</v>
       </c>
-      <c r="G544" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>557</v>
       </c>
@@ -29955,11 +28323,8 @@
       <c r="F545">
         <v>4</v>
       </c>
-      <c r="G545" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>558</v>
       </c>
@@ -29980,11 +28345,8 @@
       <c r="F546">
         <v>29747</v>
       </c>
-      <c r="G546" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>559</v>
       </c>
@@ -30005,11 +28367,8 @@
       <c r="F547">
         <v>20403</v>
       </c>
-      <c r="G547" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>560</v>
       </c>
@@ -30030,11 +28389,8 @@
       <c r="F548">
         <v>20741</v>
       </c>
-      <c r="G548" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>561</v>
       </c>
@@ -30055,11 +28411,8 @@
       <c r="F549">
         <v>11682</v>
       </c>
-      <c r="G549" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>562</v>
       </c>
@@ -30080,11 +28433,8 @@
       <c r="F550">
         <v>20053</v>
       </c>
-      <c r="G550" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>563</v>
       </c>
@@ -30105,11 +28455,8 @@
       <c r="F551">
         <v>15031</v>
       </c>
-      <c r="G551" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>564</v>
       </c>
@@ -30130,11 +28477,8 @@
       <c r="F552">
         <v>1028</v>
       </c>
-      <c r="G552" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>565</v>
       </c>
@@ -30155,11 +28499,8 @@
       <c r="F553">
         <v>3442</v>
       </c>
-      <c r="G553" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>566</v>
       </c>
@@ -30180,11 +28521,8 @@
       <c r="F554">
         <v>3039</v>
       </c>
-      <c r="G554" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>567</v>
       </c>
@@ -30205,11 +28543,8 @@
       <c r="F555">
         <v>31725</v>
       </c>
-      <c r="G555" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>568</v>
       </c>
@@ -30230,11 +28565,8 @@
       <c r="F556">
         <v>30817</v>
       </c>
-      <c r="G556" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>569</v>
       </c>
@@ -30255,11 +28587,8 @@
       <c r="F557">
         <v>17510</v>
       </c>
-      <c r="G557" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>570</v>
       </c>
@@ -30280,11 +28609,8 @@
       <c r="F558">
         <v>20186</v>
       </c>
-      <c r="G558" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>571</v>
       </c>
@@ -30305,11 +28631,8 @@
       <c r="F559">
         <v>7728</v>
       </c>
-      <c r="G559" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>572</v>
       </c>
@@ -30330,11 +28653,8 @@
       <c r="F560">
         <v>17904</v>
       </c>
-      <c r="G560" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>573</v>
       </c>
@@ -30355,11 +28675,8 @@
       <c r="F561">
         <v>23034</v>
       </c>
-      <c r="G561" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>574</v>
       </c>
@@ -30380,11 +28697,8 @@
       <c r="F562">
         <v>10520</v>
       </c>
-      <c r="G562" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>575</v>
       </c>
@@ -30405,11 +28719,8 @@
       <c r="F563">
         <v>53487</v>
       </c>
-      <c r="G563" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>576</v>
       </c>
@@ -30430,11 +28741,8 @@
       <c r="F564">
         <v>11406</v>
       </c>
-      <c r="G564" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>577</v>
       </c>
@@ -30455,30 +28763,8 @@
       <c r="F565">
         <v>8</v>
       </c>
-      <c r="G565" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>580</v>
-      </c>
-      <c r="B569" t="s">
-        <v>582</v>
-      </c>
-      <c r="C569" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A571" s="2" t="s">
-        <v>581</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A571" r:id="rId1" xr:uid="{3592E258-8112-4AD5-86D0-810109C5240E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
